--- a/XC-comparisons/und_P-DAT_comparison.xlsx
+++ b/XC-comparisons/und_P-DAT_comparison.xlsx
@@ -1398,7 +1398,7 @@
         <v>-117</v>
       </c>
       <c r="B35">
-        <v>-0.00099999999999989</v>
+        <v>4.44089209850063e-16</v>
       </c>
       <c r="C35">
         <v>-4.44089209850063e-16</v>
@@ -3660,7 +3660,7 @@
         <v>-39</v>
       </c>
       <c r="B113">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>3.5527136788005e-15</v>
@@ -3979,7 +3979,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>-18</v>
       </c>
       <c r="B134">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>-15</v>
       </c>
       <c r="B137">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>20</v>
       </c>
       <c r="B172">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>66</v>
       </c>
       <c r="B218">
-        <v>-0.000999999999999446</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>-117</v>
       </c>
       <c r="B35">
-        <v>3.308</v>
+        <v>3.309</v>
       </c>
       <c r="C35">
         <v>3.368</v>
@@ -21202,7 +21202,7 @@
         <v>-39</v>
       </c>
       <c r="B113">
-        <v>23.254</v>
+        <v>23.255</v>
       </c>
       <c r="C113">
         <v>25.431</v>
@@ -21521,7 +21521,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>35.683</v>
+        <v>35.684</v>
       </c>
       <c r="C124">
         <v>40.045</v>
@@ -21811,7 +21811,7 @@
         <v>-18</v>
       </c>
       <c r="B134">
-        <v>51.048</v>
+        <v>51.049</v>
       </c>
       <c r="C134">
         <v>59.519</v>
@@ -21898,7 +21898,7 @@
         <v>-15</v>
       </c>
       <c r="B137">
-        <v>55.152</v>
+        <v>55.153</v>
       </c>
       <c r="C137">
         <v>65.513</v>
@@ -22420,7 +22420,7 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>61.102</v>
+        <v>61.103</v>
       </c>
       <c r="C155">
         <v>74.987</v>
@@ -22913,7 +22913,7 @@
         <v>20</v>
       </c>
       <c r="B172">
-        <v>31.572</v>
+        <v>31.573</v>
       </c>
       <c r="C172">
         <v>32.44</v>
@@ -24247,7 +24247,7 @@
         <v>66</v>
       </c>
       <c r="B218">
-        <v>9.698</v>
+        <v>9.699</v>
       </c>
       <c r="C218">
         <v>9.724</v>
@@ -27711,7 +27711,7 @@
         <v>-117</v>
       </c>
       <c r="B35">
-        <v>-0.0302297460701297</v>
+        <v>1.34206470187387e-14</v>
       </c>
       <c r="C35">
         <v>-1.31855466107501e-14</v>
@@ -29973,7 +29973,7 @@
         <v>-39</v>
       </c>
       <c r="B113">
-        <v>-0.00430033542615322</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>1.39700117132653e-14</v>
@@ -30292,7 +30292,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>-0.00280245495053014</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -30582,7 +30582,7 @@
         <v>-18</v>
       </c>
       <c r="B134">
-        <v>-0.00195894060491629</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>-15</v>
       </c>
       <c r="B137">
-        <v>-0.00181317087321887</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -31191,7 +31191,7 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>-0.00163660763969228</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -31684,7 +31684,7 @@
         <v>20</v>
       </c>
       <c r="B172">
-        <v>-0.0031673634866376</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -33018,7 +33018,7 @@
         <v>66</v>
       </c>
       <c r="B218">
-        <v>-0.0103114044132754</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
